--- a/LOCATION SHEETS/1850sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1850sLOCATIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C16210D-0750-D743-AA78-2C43146B987B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2596F4B-EBA3-CF47-9BF3-8C105076BA21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2900" yWindow="460" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4432" uniqueCount="2047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4437" uniqueCount="2048">
   <si>
     <t>LOCATIONS IN 1850s</t>
   </si>
@@ -6481,6 +6481,9 @@
   </si>
   <si>
     <t>RR478</t>
+  </si>
+  <si>
+    <t>RR488</t>
   </si>
 </sst>
 </file>
@@ -7274,8 +7277,8 @@
   <dimension ref="A1:M1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D598" sqref="D598"/>
+      <pane ySplit="6" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H225" sqref="H225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -8731,7 +8734,12 @@
         <v>147</v>
       </c>
       <c r="E63" s="24"/>
-      <c r="G63" s="43"/>
+      <c r="F63" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="G63" s="106" t="s">
+        <v>2047</v>
+      </c>
       <c r="I63" s="44"/>
       <c r="J63" s="45"/>
     </row>
@@ -12451,7 +12459,12 @@
         <v>516</v>
       </c>
       <c r="E225" s="24"/>
-      <c r="G225" s="43"/>
+      <c r="F225" t="s">
+        <v>134</v>
+      </c>
+      <c r="G225" s="106" t="s">
+        <v>1948</v>
+      </c>
       <c r="I225" s="44"/>
       <c r="J225" s="45"/>
     </row>
@@ -18137,6 +18150,9 @@
         <v>1025</v>
       </c>
       <c r="E485" s="24"/>
+      <c r="F485" s="95" t="s">
+        <v>134</v>
+      </c>
       <c r="G485" s="47" t="s">
         <v>1026</v>
       </c>

--- a/LOCATION SHEETS/1850sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1850sLOCATIONS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F71AA1-4B27-8A4E-99C8-F641F1F077F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82A0944-4244-6846-A3D0-AA88E162E916}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="460" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="500" windowWidth="28060" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1850sLOCATIONS" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4461" uniqueCount="2047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4463" uniqueCount="2049">
   <si>
     <t>LOCATIONS IN 1850s</t>
   </si>
@@ -6481,6 +6481,12 @@
   </si>
   <si>
     <t>TAUNTON (OBS GILLETT)</t>
+  </si>
+  <si>
+    <t>TORQUAY (WOODFIELD)</t>
+  </si>
+  <si>
+    <t>WORCESTER (BALL)</t>
   </si>
 </sst>
 </file>
@@ -7274,8 +7280,8 @@
   <dimension ref="A1:M1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A581" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H604" sqref="H604"/>
+      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -8102,13 +8108,17 @@
       <c r="C35" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>93</v>
+      <c r="D35" s="12" t="s">
+        <v>1922</v>
       </c>
       <c r="E35" s="24"/>
-      <c r="F35" s="35"/>
+      <c r="F35" s="70" t="s">
+        <v>131</v>
+      </c>
       <c r="G35" s="29"/>
-      <c r="H35" s="35"/>
+      <c r="H35" s="35" t="s">
+        <v>2048</v>
+      </c>
       <c r="I35" s="41"/>
       <c r="J35" s="31"/>
     </row>
@@ -19458,8 +19468,8 @@
         <v>1044</v>
       </c>
       <c r="G539" s="43"/>
-      <c r="H539" s="46" t="s">
-        <v>1125</v>
+      <c r="H539" s="95" t="s">
+        <v>2047</v>
       </c>
       <c r="I539" s="46" t="s">
         <v>1126</v>
@@ -24074,8 +24084,8 @@
       <c r="C748" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="D748" s="21" t="s">
-        <v>1457</v>
+      <c r="D748" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="E748" s="24"/>
       <c r="F748" s="46" t="s">
